--- a/medicine/Enfance/Timo_Parvela/Timo_Parvela.xlsx
+++ b/medicine/Enfance/Timo_Parvela/Timo_Parvela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Timo Johannes Parvela, (né le 19 mai 1964 à Jyväskylä), est un écrivain finlandais de littérature d'enfance et de jeunesse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Timo Johannes Parvela, (né le 19 mai 1964 à Jyväskylä), est un écrivain finlandais de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1983, Timo Parvela obtient son baccalauréat. En 1988, il reçoit son bachelor en sciences de l'éducation de l'université de Jyväskylä.
 De 1988 à 1990 il est directeur de l'école élementaire de Tupamäki à Petäjävesi et de 1990 à 1991 il est professeur de l'école primaire de Tyyppälä dans la municipalité rurale de Jyväskylä. De 1992 à 1996, il enseigne à l'école primaire d'Aarnivalkea (fi) d'Espoo.
-Depuis 1996, Timo Parvela est écrivain indépendant[2].
-De 2019 à 2021, il est sélectionné trois années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[3].
+Depuis 1996, Timo Parvela est écrivain indépendant.
+De 2019 à 2021, il est sélectionné trois années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(fi) Poika, Helsinki, Tammi, 1989 (ISBN 951-30-9154-6)
 (fi) Puhuva koira, Helsinki, Tammi, 1990 (ISBN 951-30-9519-3)
@@ -559,22 +575,131 @@
 (fi) Sanoo isä, Helsinki, Tammi, 2001 (ISBN 951-31-2186-0)
 (fi) Mitä siihen sanot, isä?, Helsinki, Tammi, 2002 (ISBN 951-31-2554-8)
 (fi) Keinulauta, Helsinki, WSOY, 2006, 83 p. (ISBN 951-0-31901-5)
-(fi) Taron suuri pieni seikkailu, Helsinki, WSOY, 2014 (ISBN 978-951-0-40285-6)
-Série Hilma (1995, 2004–2005)
-(fi) Hilma ja Pingviini  (ill. Markus Majaluoma), Helsinki, Lasten oma kirjakerho, 1995 (ISBN 951-875-838-7)
+(fi) Taron suuri pieni seikkailu, Helsinki, WSOY, 2014 (ISBN 978-951-0-40285-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Hilma (1995, 2004–2005)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(fi) Hilma ja Pingviini  (ill. Markus Majaluoma), Helsinki, Lasten oma kirjakerho, 1995 (ISBN 951-875-838-7)
 (fi) Hilma ja täydellinen lemmikki  (ill. Kristiina Louhi), Helsinki, WSOY, 2004 (ISBN 951-0-28920-5)
-(fi) Hilma ja hyvä harrastus  (ill. Kristiina Louhi), Helsinki, WSOY, 2005, 43 p. (ISBN 951-0-30269-4)
-Série Ella ja kaverit (1995–)
-Série Kirjava kukko
-(fi) Ella ja kiristäjä, Helsinki, Tammi, 1995 (ISBN 951-31-0623-3)
+(fi) Hilma ja hyvä harrastus  (ill. Kristiina Louhi), Helsinki, WSOY, 2005, 43 p. (ISBN 951-0-30269-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Ella ja kaverit (1995–)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Kirjava kukko</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(fi) Ella ja kiristäjä, Helsinki, Tammi, 1995 (ISBN 951-31-0623-3)
 (fi) Ella teatterissa, Helsinki, Tammi, 1996 (ISBN 951-31-0875-9)
 (fi) Ella luokkaretkellä, Helsinki, Tammi, 1997 (ISBN 951-31-1063-X)
 (fi) Ella ja lopettaja, Helsinki, Tammi, 1998 (ISBN 951-31-1316-7)
 (fi) Ella ja Pate, Helsinki, Tammi, 1999 (ISBN 951-31-1632-8)
 (fi) Ella ja Pukari, Helsinki, Tammi, 2000 (ISBN 951-31-1944-0)
-(fi) Ella yökoulussa, Helsinki, Tammi, 2001 (ISBN 951-31-2221-2)
-Romans pour enfants
-(fi) Ella Lapissa, Helsinki, Tammi, 2003 (ISBN 951-31-2874-1)
+(fi) Ella yökoulussa, Helsinki, Tammi, 2001 (ISBN 951-31-2221-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Ella ja kaverit (1995–)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans pour enfants</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(fi) Ella Lapissa, Helsinki, Tammi, 2003 (ISBN 951-31-2874-1)
 (fi) Ella ja Paterock, Helsinki, Tammi, 2004 (ISBN 951-31-3130-0)
 (fi) Ella aalloilla, Helsinki, Tammi, 2005 (ISBN 951-31-3437-7)
 (fi) Varokaa lapsia!, Helsinki, Tammi, 2006 (ISBN 951-31-3685-X)
@@ -589,18 +714,120 @@
 (fi) Ella ja kaverit karkaavat koulusta  (ill. Mervi Lindman), Helsinki, Tammi, 2014 (ISBN 978-951-31-7994-6)
 (fi) Ella ja kaverit lapsenvahteina, Helsinki, Tammi, 2015 (ISBN 978-951-31-8267-0)
 (fi) Ella ja kaverit liemessä  (ill. Mervi Lindman), Helsinki, Tammi, 2015 (ISBN 978-951-31-8509-1)
-(fi) Ella ja kaverit salaisessa palveluksessa  (ill. Mervi Lindman), Helsinki, Tammi, 2016 (ISBN 978-951-31-8833-7)
-Série Anna ja Antti (1999–2003)
-(fi) Annan ja Antin aamutouhut, Espoo, Weilin+Göös, 1999 (ISBN 951-35-6548-3)
+(fi) Ella ja kaverit salaisessa palveluksessa  (ill. Mervi Lindman), Helsinki, Tammi, 2016 (ISBN 978-951-31-8833-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Anna ja Antti (1999–2003)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(fi) Annan ja Antin aamutouhut, Espoo, Weilin+Göös, 1999 (ISBN 951-35-6548-3)
 (fi) Anna ja Antti. Rapinaa yössä, Helsinki, WSOY, 2001 (ISBN 951-0-25631-5)
 (fi) Anna ja Antti, ei saa!, Helsinki, WSOY, 2002 (ISBN 951-0-26847-X)
-(fi) Anna ja Antti. Kiusankappale, Helsinki, WSOY, 2003 (ISBN 951-0-27769-X)
-Sammon vartijat (2007–2009)
-(fi) Tuliterä, Helsinki, Tammi, 2007 (ISBN 978-951-31-3999-5)
+(fi) Anna ja Antti. Kiusankappale, Helsinki, WSOY, 2003 (ISBN 951-0-27769-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sammon vartijat (2007–2009)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(fi) Tuliterä, Helsinki, Tammi, 2007 (ISBN 978-951-31-3999-5)
 (fi) Tiera, Helsinki, Tammi, 2008 (ISBN 978-951-31-4316-9)
-(fi) Louhi, Helsinki, Tammi, 2009 (ISBN 978-951-31-5037-2)
-Maukka ja Väykkä (2007–)
-(fi) Maukka ja Väykkä  (ill. Virpi Talvitie), Espoo, Itupiikki, 2007 (ISBN 978-952-92-1589-8)
+(fi) Louhi, Helsinki, Tammi, 2009 (ISBN 978-951-31-5037-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Maukka ja Väykkä (2007–)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(fi) Maukka ja Väykkä  (ill. Virpi Talvitie), Espoo, Itupiikki, 2007 (ISBN 978-952-92-1589-8)
 (fi) Maukka, Väykkä ja mieletön lumipallo  (ill. Virpi Talvitie), Helsinki, Tammi, 2009 (ISBN 978-951-31-4955-0)
 (fi) Maukka ja Väykkä rakentavat talon  (ill. Virpi Talvitie), Helsinki, Tammi, 2010 (ISBN 978-951-31-5549-0)
 (fi) Maukka, Väykkä ja suuri seikkailu  (ill. Virpi Talvitie), Helsinki, Tammi, 2011 (ISBN 978-951-31-5927-6)
@@ -608,44 +835,114 @@
 (fi) Maukan ja Väykän satukirja  (ill. Virpi Talvitie), Helsinki, Tammi, 2013 (ISBN 978-951-31-6168-2)
 (fi) Maukan ja Väykän pieni kirja ystävyydestä  (ill. Virpi Talvitie), Helsinki, Tammi, 2013 (ISBN 978-951-31-7122-3)
 (fi) Maukan ja Väykän naamakirja  (ill. Virpi Talvitie), Helsinki, Tammi, 2014 (ISBN 978-951-31-7995-3)
-(fi) Maukan ja Väykän matkakirja  (ill. Virpi Talvitie), Helsinki, Tammi, 2015 (ISBN 978-951-31-8503-9)
-Série Pate (2014–)
-(fi) Paten aikakirjat, Helsinki, Tammi, 2014 (ISBN 978-951-31-7800-0)
-(fi) Pate ja maailman paras joukkue, Helsinki, Tammi, 2015 (ISBN 978-951-31-8354-7)
-Série Kepler62 (2015–)
-(fi) Parvela, Timo &amp; Sortland, Bjørn (ill. Pasi Pitkänen), Kepler62 : Kirja yksi – Kutsu, Helsinki, WSOY, 2015 (ISBN 978-951-0-41258-9)
+(fi) Maukan ja Väykän matkakirja  (ill. Virpi Talvitie), Helsinki, Tammi, 2015 (ISBN 978-951-31-8503-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Pate (2014–)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(fi) Paten aikakirjat, Helsinki, Tammi, 2014 (ISBN 978-951-31-7800-0)
+(fi) Pate ja maailman paras joukkue, Helsinki, Tammi, 2015 (ISBN 978-951-31-8354-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Kepler62 (2015–)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(fi) Parvela, Timo &amp; Sortland, Bjørn (ill. Pasi Pitkänen), Kepler62 : Kirja yksi – Kutsu, Helsinki, WSOY, 2015 (ISBN 978-951-0-41258-9)
 (fi) Sortland, Bjørn &amp; Parvela, Timo (trad. Outi Menna, ill. Pasi Pitkänen), Kepler62 : Kirja kaksi – Lähtölaskenta, Helsinki, WSOY, 2015 (ISBN 978-951-0-41259-6)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Timo_Parvela</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Timo_Parvela</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Timo_Parvela</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(international) « Honour List » 1992[4] de l' IBBY pour Poika
-(international) « Honour List » 2000[5] de l' IBBY pour Ella luokkaretkellä
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(international) « Honour List » 1992 de l' IBBY pour Poika
+(international) « Honour List » 2000 de l' IBBY pour Ella luokkaretkellä
 Prix Arvid Lydecken , 1997
 Prix Kaarina Helakisa, 2005
 Prix du grand club du livre finlandais, 2005
@@ -655,7 +952,7 @@
 Prix Laivakello , 2011
 Prix Finlande, 2014
 [réf. nécessaire]
- Sélections 2019, 2020 et 2021 pour le Prix commémoratif Astrid-Lindgren[3]</t>
+ Sélections 2019, 2020 et 2021 pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
